--- a/data/financial_statements/soci/GPN.xlsx
+++ b/data/financial_statements/soci/GPN.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-11-30</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-08-31</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2016-02-29</t>
+  </si>
+  <si>
+    <t>2015-11-30</t>
+  </si>
+  <si>
+    <t>2015-08-31</t>
+  </si>
+  <si>
+    <t>2015-02-28</t>
+  </si>
+  <si>
+    <t>2014-11-30</t>
+  </si>
+  <si>
+    <t>2014-08-31</t>
+  </si>
+  <si>
+    <t>2014-02-28</t>
+  </si>
+  <si>
+    <t>2013-11-30</t>
+  </si>
+  <si>
+    <t>2013-08-31</t>
+  </si>
+  <si>
+    <t>2013-02-28</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -128,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -493,144 +604,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42704</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42613</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42429</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42338</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42247</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>42063</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41973</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41882</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41698</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41608</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41517</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41333</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>2285371000</v>
+        <v>2285000000</v>
       </c>
       <c r="C2">
-        <v>2280906000</v>
+        <v>2281000000</v>
       </c>
       <c r="D2">
-        <v>2156254000</v>
+        <v>2156000000</v>
       </c>
       <c r="E2">
-        <v>2193981000</v>
+        <v>2194000000</v>
       </c>
       <c r="F2">
-        <v>2202337000</v>
+        <v>2202000000</v>
       </c>
       <c r="G2">
         <v>2137437000</v>
@@ -687,7 +798,7 @@
         <v>919762000</v>
       </c>
       <c r="Y2">
-        <v>423680800</v>
+        <v>436073900</v>
       </c>
       <c r="Z2">
         <v>941821000</v>
@@ -736,23 +847,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>0.0377</v>
       </c>
       <c r="C3">
-        <v>0.06710000000000001</v>
+        <v>0.0672</v>
       </c>
       <c r="D3">
-        <v>0.0835</v>
+        <v>0.0834</v>
       </c>
       <c r="E3">
         <v>0.1367</v>
       </c>
       <c r="F3">
-        <v>0.1484</v>
+        <v>0.1482</v>
       </c>
       <c r="G3">
         <v>0.2784</v>
@@ -797,7 +908,7 @@
         <v>-0.1357</v>
       </c>
       <c r="U3">
-        <v>1.4883</v>
+        <v>1.4176</v>
       </c>
       <c r="V3">
         <v>0.1031</v>
@@ -809,7 +920,7 @@
         <v>-0.021</v>
       </c>
       <c r="Y3">
-        <v>-0.4972</v>
+        <v>-0.4825</v>
       </c>
       <c r="Z3">
         <v>0.5039</v>
@@ -858,23 +969,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>931249000</v>
+        <v>931000000</v>
       </c>
       <c r="C4">
-        <v>962299000</v>
+        <v>962000000</v>
       </c>
       <c r="D4">
-        <v>957158000</v>
+        <v>957000000</v>
       </c>
       <c r="E4">
-        <v>967997200</v>
+        <v>968000000</v>
       </c>
       <c r="F4">
-        <v>944172000</v>
+        <v>944000000</v>
       </c>
       <c r="G4">
         <v>936310000</v>
@@ -931,7 +1042,7 @@
         <v>455936000</v>
       </c>
       <c r="Y4">
-        <v>12058100</v>
+        <v>19412100</v>
       </c>
       <c r="Z4">
         <v>468383000</v>
@@ -980,23 +1091,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1354122000</v>
+        <v>1354000000</v>
       </c>
       <c r="C5">
-        <v>1318607000</v>
+        <v>1319000000</v>
       </c>
       <c r="D5">
-        <v>1199096000</v>
+        <v>1199000000</v>
       </c>
       <c r="E5">
-        <v>1225984000</v>
+        <v>1226000000</v>
       </c>
       <c r="F5">
-        <v>1258165000</v>
+        <v>1258000000</v>
       </c>
       <c r="G5">
         <v>1201127000</v>
@@ -1053,7 +1164,7 @@
         <v>463826000</v>
       </c>
       <c r="Y5">
-        <v>411622800</v>
+        <v>416661800</v>
       </c>
       <c r="Z5">
         <v>473438000</v>
@@ -1102,8 +1213,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>918757000</v>
@@ -1118,7 +1229,7 @@
         <v>905007900</v>
       </c>
       <c r="F6">
-        <v>858082000</v>
+        <v>787000000</v>
       </c>
       <c r="G6">
         <v>838569000</v>
@@ -1175,7 +1286,7 @@
         <v>358856000</v>
       </c>
       <c r="Y6">
-        <v>311698000</v>
+        <v>281790000</v>
       </c>
       <c r="Z6">
         <v>368171000</v>
@@ -1224,8 +1335,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>386432000</v>
@@ -1297,7 +1408,7 @@
         <v>104970000</v>
       </c>
       <c r="Y7">
-        <v>386897700</v>
+        <v>134871800</v>
       </c>
       <c r="Z7">
         <v>105267000</v>
@@ -1346,8 +1457,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>132000000</v>
@@ -1387,23 +1498,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>135184000</v>
+        <v>20000000</v>
       </c>
       <c r="C9">
-        <v>99188000</v>
+        <v>3000000</v>
       </c>
       <c r="D9">
-        <v>93283000</v>
+        <v>2000000</v>
       </c>
       <c r="E9">
-        <v>87767000</v>
+        <v>3000000</v>
       </c>
       <c r="F9">
-        <v>82187000</v>
+        <v>6000000</v>
       </c>
       <c r="G9">
         <v>80556000</v>
@@ -1460,7 +1571,7 @@
         <v>41297000</v>
       </c>
       <c r="Y9">
-        <v>-26190000</v>
+        <v>-23658000</v>
       </c>
       <c r="Z9">
         <v>52448000</v>
@@ -1509,23 +1620,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>-114791000</v>
+        <v>23000000</v>
       </c>
       <c r="C10">
-        <v>-96232000</v>
+        <v>734000000</v>
       </c>
       <c r="D10">
-        <v>-91572000</v>
+        <v>39000000</v>
       </c>
       <c r="E10">
-        <v>-84456000</v>
+        <v>145000000</v>
       </c>
       <c r="F10">
-        <v>-75867000</v>
+        <v>61000000</v>
       </c>
       <c r="G10">
         <v>-75101000</v>
@@ -1631,23 +1742,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>271641000</v>
+        <v>272000000</v>
       </c>
       <c r="C11">
-        <v>-626090000</v>
+        <v>-626000000</v>
       </c>
       <c r="D11">
-        <v>284375000</v>
+        <v>284000000</v>
       </c>
       <c r="E11">
-        <v>236520000</v>
+        <v>237000000</v>
       </c>
       <c r="F11">
-        <v>324216000</v>
+        <v>324000000</v>
       </c>
       <c r="G11">
         <v>287457000</v>
@@ -1704,7 +1815,7 @@
         <v>65280000</v>
       </c>
       <c r="Y11">
-        <v>121941000</v>
+        <v>77684000</v>
       </c>
       <c r="Z11">
         <v>54172000</v>
@@ -1753,23 +1864,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>14255000</v>
+        <v>14000000</v>
       </c>
       <c r="C12">
-        <v>52776000</v>
+        <v>53000000</v>
       </c>
       <c r="D12">
-        <v>52218000</v>
+        <v>52000000</v>
       </c>
       <c r="E12">
-        <v>37434000</v>
+        <v>37000000</v>
       </c>
       <c r="F12">
-        <v>50117000</v>
+        <v>50000000</v>
       </c>
       <c r="G12">
         <v>60808000</v>
@@ -1826,7 +1937,7 @@
         <v>12321000</v>
       </c>
       <c r="Y12">
-        <v>33993000</v>
+        <v>19970000</v>
       </c>
       <c r="Z12">
         <v>1557000</v>
@@ -1875,8 +1986,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>257386000</v>
@@ -1948,7 +2059,7 @@
         <v>52959000</v>
       </c>
       <c r="Y13">
-        <v>78011000</v>
+        <v>67179000</v>
       </c>
       <c r="Z13">
         <v>52615000</v>
@@ -1997,8 +2108,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>42780000</v>
@@ -2038,8 +2149,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2088,8 +2199,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>9712000</v>
@@ -2161,7 +2272,7 @@
         <v>4146000</v>
       </c>
       <c r="Y16">
-        <v>3086000</v>
+        <v>2435000</v>
       </c>
       <c r="Z16">
         <v>3163000</v>
@@ -2210,23 +2321,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>290454000</v>
+        <v>290000000</v>
       </c>
       <c r="C17">
-        <v>-672999000</v>
+        <v>-673000000</v>
       </c>
       <c r="D17">
-        <v>244733000</v>
+        <v>245000000</v>
       </c>
       <c r="E17">
-        <v>208453000</v>
+        <v>208000000</v>
       </c>
       <c r="F17">
-        <v>296736000</v>
+        <v>297000000</v>
       </c>
       <c r="G17">
         <v>263590000</v>
@@ -2283,7 +2394,7 @@
         <v>48813000</v>
       </c>
       <c r="Y17">
-        <v>84862000</v>
+        <v>55279000</v>
       </c>
       <c r="Z17">
         <v>49452000</v>
@@ -2332,11 +2443,11 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
         <v>-2.42</v>
@@ -2348,7 +2459,7 @@
         <v>0.72</v>
       </c>
       <c r="F18">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="G18">
         <v>0.89</v>
@@ -2418,8 +2529,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>1.05</v>
@@ -2504,23 +2615,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>275030000</v>
+        <v>275000000</v>
       </c>
       <c r="C20">
-        <v>278181000</v>
+        <v>278000000</v>
       </c>
       <c r="D20">
-        <v>282100000</v>
+        <v>282000000</v>
       </c>
       <c r="E20">
-        <v>292655000</v>
+        <v>288000000</v>
       </c>
       <c r="F20">
-        <v>291502000</v>
+        <v>292000000</v>
       </c>
       <c r="G20">
         <v>294914000</v>
@@ -2626,23 +2737,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>275435000</v>
+        <v>275000000</v>
       </c>
       <c r="C21">
-        <v>278181000</v>
+        <v>278000000</v>
       </c>
       <c r="D21">
-        <v>282567000</v>
+        <v>283000000</v>
       </c>
       <c r="E21">
-        <v>293669000</v>
+        <v>288000000</v>
       </c>
       <c r="F21">
-        <v>292507000</v>
+        <v>293000000</v>
       </c>
       <c r="G21">
         <v>296139000</v>
@@ -2748,14 +2859,14 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.5925</v>
+        <v>0.5926</v>
       </c>
       <c r="C22">
-        <v>0.5780999999999999</v>
+        <v>0.5783</v>
       </c>
       <c r="D22">
         <v>0.5561</v>
@@ -2821,7 +2932,7 @@
         <v>0.5043</v>
       </c>
       <c r="Y22">
-        <v>0.9715</v>
+        <v>0.9555</v>
       </c>
       <c r="Z22">
         <v>0.5027</v>
@@ -2870,8 +2981,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0.1691</v>
@@ -2943,7 +3054,7 @@
         <v>0.1141</v>
       </c>
       <c r="Y23">
-        <v>0.3183</v>
+        <v>0.3396</v>
       </c>
       <c r="Z23">
         <v>0.1118</v>
@@ -2992,23 +3103,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>0.1189</v>
+        <v>0.119</v>
       </c>
       <c r="C24">
-        <v>-0.2745</v>
+        <v>-0.2744</v>
       </c>
       <c r="D24">
-        <v>0.1319</v>
+        <v>0.1317</v>
       </c>
       <c r="E24">
-        <v>0.1078</v>
+        <v>0.108</v>
       </c>
       <c r="F24">
-        <v>0.1472</v>
+        <v>0.1471</v>
       </c>
       <c r="G24">
         <v>0.1345</v>
@@ -3065,7 +3176,7 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="Y24">
-        <v>0.2878</v>
+        <v>0.1781</v>
       </c>
       <c r="Z24">
         <v>0.0575</v>
@@ -3114,23 +3225,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>0.1271</v>
+        <v>0.1269</v>
       </c>
       <c r="C25">
-        <v>-0.2951</v>
+        <v>-0.295</v>
       </c>
       <c r="D25">
-        <v>0.1135</v>
+        <v>0.1136</v>
       </c>
       <c r="E25">
-        <v>0.095</v>
+        <v>0.0948</v>
       </c>
       <c r="F25">
-        <v>0.1347</v>
+        <v>0.1349</v>
       </c>
       <c r="G25">
         <v>0.1233</v>
@@ -3187,7 +3298,7 @@
         <v>0.0531</v>
       </c>
       <c r="Y25">
-        <v>0.2003</v>
+        <v>0.1268</v>
       </c>
       <c r="Z25">
         <v>0.0525</v>
@@ -3236,23 +3347,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>819884200</v>
+        <v>944000000</v>
       </c>
       <c r="C26">
-        <v>-75075200</v>
+        <v>972000000</v>
       </c>
       <c r="D26">
-        <v>830524900</v>
+        <v>879000000</v>
       </c>
       <c r="E26">
-        <v>771398100</v>
+        <v>954000000</v>
       </c>
       <c r="F26">
-        <v>842782100</v>
+        <v>913000000</v>
       </c>
       <c r="G26">
         <v>807526100</v>
@@ -3309,10 +3420,10 @@
         <v>222951000</v>
       </c>
       <c r="Y26">
-        <v>330908700</v>
+        <v>78882800</v>
       </c>
       <c r="Z26">
-        <v>329427000</v>
+        <v>221941000</v>
       </c>
       <c r="AA26">
         <v>234929000</v>
@@ -3321,22 +3432,22 @@
         <v>235646000</v>
       </c>
       <c r="AC26">
-        <v>-31893000</v>
+        <v>75593000</v>
       </c>
       <c r="AD26">
-        <v>318733000</v>
+        <v>211247000</v>
       </c>
       <c r="AE26">
-        <v>331965000</v>
+        <v>224479000</v>
       </c>
       <c r="AF26">
-        <v>225977000</v>
+        <v>200671000</v>
       </c>
       <c r="AG26">
         <v>137772000</v>
       </c>
       <c r="AH26">
-        <v>207426900</v>
+        <v>182120900</v>
       </c>
       <c r="AI26">
         <v>193156000</v>
@@ -3358,8 +3469,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>386432000</v>
@@ -3431,7 +3542,7 @@
         <v>104970000</v>
       </c>
       <c r="Y27">
-        <v>134871800</v>
+        <v>148103800</v>
       </c>
       <c r="Z27">
         <v>105267000</v>
@@ -3480,8 +3591,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>300166000</v>
@@ -3553,7 +3664,7 @@
         <v>52959000</v>
       </c>
       <c r="Y28">
-        <v>78011000</v>
+        <v>57714000</v>
       </c>
       <c r="Z28">
         <v>52615000</v>
@@ -3602,23 +3713,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>300166000</v>
+        <v>300000000</v>
       </c>
       <c r="C29">
-        <v>-665051000</v>
+        <v>-665000000</v>
       </c>
       <c r="D29">
-        <v>249636000</v>
+        <v>250000000</v>
       </c>
       <c r="E29">
-        <v>217178000</v>
+        <v>217000000</v>
       </c>
       <c r="F29">
-        <v>305463000</v>
+        <v>305000000</v>
       </c>
       <c r="G29">
         <v>266813000</v>
@@ -3675,7 +3786,7 @@
         <v>52959000</v>
       </c>
       <c r="Y29">
-        <v>87948000</v>
+        <v>57714000</v>
       </c>
       <c r="Z29">
         <v>52615000</v>
@@ -3724,8 +3835,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>1.0914</v>
@@ -3797,7 +3908,7 @@
         <v>0.3477</v>
       </c>
       <c r="Y30">
-        <v>0.6497000000000001</v>
+        <v>0.5766</v>
       </c>
       <c r="Z30">
         <v>0.3435</v>
@@ -3846,8 +3957,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>1.0898</v>
@@ -3919,7 +4030,7 @@
         <v>0.3456</v>
       </c>
       <c r="Y31">
-        <v>0.5729</v>
+        <v>0.6455</v>
       </c>
       <c r="Z31">
         <v>0.3417</v>
@@ -3968,8 +4079,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>1.0914</v>
@@ -4041,7 +4152,7 @@
         <v>0.3477</v>
       </c>
       <c r="Y32">
-        <v>0.5766</v>
+        <v>0.6497000000000001</v>
       </c>
       <c r="Z32">
         <v>0.3435</v>
@@ -4090,8 +4201,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>1.0898</v>
@@ -4212,8 +4323,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>275435000</v>
@@ -4298,23 +4409,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>0.3588</v>
+        <v>0.4131</v>
       </c>
       <c r="C35">
-        <v>-0.0329</v>
+        <v>0.4261</v>
       </c>
       <c r="D35">
-        <v>0.3852</v>
+        <v>0.4077</v>
       </c>
       <c r="E35">
-        <v>0.3516</v>
+        <v>0.4348</v>
       </c>
       <c r="F35">
-        <v>0.3827</v>
+        <v>0.4146</v>
       </c>
       <c r="G35">
         <v>0.3778</v>
@@ -4371,10 +4482,10 @@
         <v>0.2424</v>
       </c>
       <c r="Y35">
-        <v>0.781</v>
+        <v>0.1809</v>
       </c>
       <c r="Z35">
-        <v>0.3498</v>
+        <v>0.2357</v>
       </c>
       <c r="AA35">
         <v>0.2468</v>
@@ -4383,22 +4494,22 @@
         <v>0.2508</v>
       </c>
       <c r="AC35">
-        <v>-0.0378</v>
+        <v>0.0897</v>
       </c>
       <c r="AD35">
-        <v>0.5089</v>
+        <v>0.3373</v>
       </c>
       <c r="AE35">
-        <v>0.4882</v>
+        <v>0.3301</v>
       </c>
       <c r="AF35">
-        <v>0.3128</v>
+        <v>0.2778</v>
       </c>
       <c r="AG35">
         <v>0.184</v>
       </c>
       <c r="AH35">
-        <v>0.3119</v>
+        <v>0.2739</v>
       </c>
       <c r="AI35">
         <v>0.277</v>
@@ -4420,8 +4531,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>0.1472</v>
@@ -4436,7 +4547,7 @@
         <v>0.3433</v>
       </c>
       <c r="F36">
-        <v>0.4168</v>
+        <v>0.4169</v>
       </c>
       <c r="G36">
         <v>0.2387</v>
@@ -4493,7 +4604,7 @@
         <v>0.3196</v>
       </c>
       <c r="Y36">
-        <v>1.032</v>
+        <v>1.0026</v>
       </c>
       <c r="Z36">
         <v>0.0402</v>
